--- a/table/Const.Common.xlsx
+++ b/table/Const.Common.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c#\crash\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C33F6C9-8DA2-480A-AB12-56401C9D781C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD389148-34F5-42B1-9EF7-DEC81304818D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Portal" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveEpsilon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +448,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -496,10 +508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418FAA53-E344-4FA6-B50E-1BFA3E9B73C9}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -537,6 +549,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>1E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/table/Const.Common.xlsx
+++ b/table/Const.Common.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD389148-34F5-42B1-9EF7-DEC81304818D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE17249B-9592-4D82-BAC8-ED6900D86170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Portal" sheetId="3" r:id="rId1"/>
     <sheet name="Character" sheetId="4" r:id="rId2"/>
+    <sheet name="Input" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +82,18 @@
   </si>
   <si>
     <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraMoveDelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragDelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScrollDelta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418FAA53-E344-4FA6-B50E-1BFA3E9B73C9}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -568,4 +581,77 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954A3BFB-C5E2-44D1-A6EB-C2A039E1D859}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/table/Const.Common.xlsx
+++ b/table/Const.Common.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE17249B-9592-4D82-BAC8-ED6900D86170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF11609B-CDF0-4562-A04B-FC5AA2A1EE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Portal" sheetId="3" r:id="rId1"/>
     <sheet name="Character" sheetId="4" r:id="rId2"/>
     <sheet name="Input" sheetId="5" r:id="rId3"/>
+    <sheet name="Time" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +95,14 @@
   </si>
   <si>
     <t>ScrollDelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +533,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -587,8 +596,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954A3BFB-C5E2-44D1-A6EB-C2A039E1D859}">
   <dimension ref="A1:D4"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FDACE6-2483-4796-801E-F6D358B8BF25}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -609,44 +694,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>0.1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/table/Const.Common.xlsx
+++ b/table/Const.Common.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF11609B-CDF0-4562-A04B-FC5AA2A1EE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E24FA9-775B-439F-B630-7AD562C297BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="4395" yWindow="4215" windowWidth="10740" windowHeight="11385" activeTab="3" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Portal" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>TPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FramePerTurn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,10 +674,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FDACE6-2483-4796-801E-F6D358B8BF25}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -720,6 +724,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/table/Const.Common.xlsx
+++ b/table/Const.Common.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E24FA9-775B-439F-B630-7AD562C297BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C2ED5D-432C-4129-8DD2-943D97565D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="4215" windowWidth="10740" windowHeight="11385" activeTab="3" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Portal" sheetId="3" r:id="rId1"/>
     <sheet name="Character" sheetId="4" r:id="rId2"/>
     <sheet name="Input" sheetId="5" r:id="rId3"/>
     <sheet name="Time" sheetId="6" r:id="rId4"/>
+    <sheet name="Debug" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +108,30 @@
   </si>
   <si>
     <t>FramePerTurn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitSpawnType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitSpawnCount1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitSpawnType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitSpawnCount2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitSpawnType3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitSpawnCount3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FDACE6-2483-4796-801E-F6D358B8BF25}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -743,4 +768,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C63CFC1-BBBA-4AB6-AE77-2ADBD46803EF}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>